--- a/Entregaveis/1.RepositorioSemantico/Exames/ConceptMapsExams/BRTipoResultadoRSCUL-IPS.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Exames/ConceptMapsExams/BRTipoResultadoRSCUL-IPS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Exames/ConceptMapsExams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBE05514-D73C-6048-A5FC-0AD2C3C841EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71008BDD-D289-2946-9183-452F6C952704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="760" windowWidth="29140" windowHeight="15460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,16 +134,16 @@
     <t>Negative</t>
   </si>
   <si>
-    <t>BRTipoResultadoRSBAC</t>
-  </si>
-  <si>
-    <t>Foram visualizados</t>
-  </si>
-  <si>
-    <t>Não Foram visualizados</t>
-  </si>
-  <si>
     <t>POS</t>
+  </si>
+  <si>
+    <t>BRTipoResultadoRSCUL</t>
+  </si>
+  <si>
+    <t>Não houve crescimento</t>
+  </si>
+  <si>
+    <t>Houve crescimento</t>
   </si>
 </sst>
 </file>
@@ -609,7 +609,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:E6"/>
+      <selection activeCell="A4" sqref="A4:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -648,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>12</v>
@@ -684,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>18</v>
@@ -704,7 +704,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>20</v>
@@ -770,7 +770,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:F6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -808,7 +808,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>12</v>
@@ -842,14 +842,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
+      <c r="A4" s="17">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>31</v>
+      <c r="B4" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>27</v>
@@ -862,11 +862,11 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+      <c r="A5" s="17">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>32</v>
+      <c r="B5" s="17" t="s">
+        <v>33</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>28</v>
@@ -882,10 +882,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="A6" s="17">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -1011,9 +1011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>

--- a/Entregaveis/1.RepositorioSemantico/Exames/ConceptMapsExams/BRTipoResultadoRSCUL-IPS.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Exames/ConceptMapsExams/BRTipoResultadoRSCUL-IPS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Exames/ConceptMapsExams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71008BDD-D289-2946-9183-452F6C952704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7306B21F-37E2-AF4C-AE29-5D6E26A1DC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="760" windowWidth="29140" windowHeight="15460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -125,9 +125,6 @@
     <t>Insufficient evidence</t>
   </si>
   <si>
-    <t>Positive</t>
-  </si>
-  <si>
     <t>NEG</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>Houve crescimento</t>
+  </si>
+  <si>
+    <t>POSITIVE</t>
   </si>
 </sst>
 </file>
@@ -318,7 +318,7 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -648,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>12</v>
@@ -684,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>18</v>
@@ -704,7 +704,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>20</v>
@@ -770,7 +770,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -808,7 +808,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>12</v>
@@ -846,13 +846,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>3</v>
@@ -866,13 +866,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
         <v>33</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>29</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>3</v>
